--- a/шефы.xlsx
+++ b/шефы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1308" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="1908" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Шефы</t>
   </si>
@@ -46,18 +46,9 @@
     <t>Калитько Дмитрий Сергеевич</t>
   </si>
   <si>
-    <t>Карась Андрей Сергеевич</t>
-  </si>
-  <si>
     <t>Кирлица Дарья Андреевна</t>
   </si>
   <si>
-    <t>Кротюк Иван Михайлович</t>
-  </si>
-  <si>
-    <t>Крутько Андрей Алексеевич</t>
-  </si>
-  <si>
     <t>Кумичова Дарья Дмитриевна</t>
   </si>
   <si>
@@ -82,20 +73,53 @@
     <t>Сымоник Вадим Валерьевич</t>
   </si>
   <si>
-    <t>Устинович Максим Александрович</t>
-  </si>
-  <si>
     <t>Ханенко Андрей Алексеевич</t>
   </si>
   <si>
     <t>Шоть Ксения Сергеевна</t>
+  </si>
+  <si>
+    <t>Иванов Андрей Александрович</t>
+  </si>
+  <si>
+    <t>Курилович Даниил Геннадьевич</t>
+  </si>
+  <si>
+    <t>Раджабов Осаф Манучехрович</t>
+  </si>
+  <si>
+    <t>Скоков Андрей Владимирович</t>
+  </si>
+  <si>
+    <t>Урбанович Антон Александрович</t>
+  </si>
+  <si>
+    <t>Шмаргун Александр Эдуардович</t>
+  </si>
+  <si>
+    <t>Карась Андрей Сергеевич(3)</t>
+  </si>
+  <si>
+    <t>Кротюк Иван Михайлович(3)</t>
+  </si>
+  <si>
+    <t>Стасевич Янина Александровна (3)</t>
+  </si>
+  <si>
+    <t>Устинович Максим Александрович(3)</t>
+  </si>
+  <si>
+    <t>Крутько Андрей Алексеевич(3)</t>
+  </si>
+  <si>
+    <t>Колбеко Влада Сергеевна, Григорьева Александра Александровна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,20 +137,32 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF212529"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -138,13 +174,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -153,10 +189,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -166,14 +202,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -182,19 +218,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,19 +543,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,127 +563,188 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B31" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/шефы.xlsx
+++ b/шефы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1908" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="2508" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Шефы</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Колбеко Влада Сергеевна, Григорьева Александра Александровна</t>
+  </si>
+  <si>
+    <t>Легенда</t>
+  </si>
+  <si>
+    <t>Цвет - девочки, (3) - допустимо 3 подшефных</t>
   </si>
 </sst>
 </file>
@@ -218,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,6 +244,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,87 +552,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.88671875" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -631,25 +647,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>

--- a/шефы.xlsx
+++ b/шефы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2508" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="3108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Шефы</t>
   </si>
@@ -77,24 +77,6 @@
   </si>
   <si>
     <t>Шоть Ксения Сергеевна</t>
-  </si>
-  <si>
-    <t>Иванов Андрей Александрович</t>
-  </si>
-  <si>
-    <t>Курилович Даниил Геннадьевич</t>
-  </si>
-  <si>
-    <t>Раджабов Осаф Манучехрович</t>
-  </si>
-  <si>
-    <t>Скоков Андрей Владимирович</t>
-  </si>
-  <si>
-    <t>Урбанович Антон Александрович</t>
-  </si>
-  <si>
-    <t>Шмаргун Александр Эдуардович</t>
   </si>
   <si>
     <t>Карась Андрей Сергеевич(3)</t>
@@ -554,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -582,7 +564,7 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -623,142 +605,123 @@
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
+      <c r="A12" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
+      <c r="A14" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
+      <c r="A15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
+    <row r="25" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="26" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
+    <row r="27" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
+    <row r="28" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>19</v>
-      </c>
+    <row r="29" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="30" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="B31" s="6"/>
     </row>
   </sheetData>
